--- a/2016 2DGP 수업일정.xlsx
+++ b/2016 2DGP 수업일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="84">
   <si>
     <t>1주</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,6 +349,10 @@
   </si>
   <si>
     <t>입력처리(동영상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -879,67 +883,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1249,7 +1253,7 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="B16" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1284,29 +1288,29 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="47" t="s">
+      <c r="G2" s="49"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
-      <c r="B3" s="43"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="25" t="s">
         <v>2</v>
       </c>
@@ -1338,7 +1342,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="54" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="26" t="s">
@@ -1377,7 +1381,7 @@
     </row>
     <row r="5" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="45"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="27" t="s">
         <v>39</v>
       </c>
@@ -1414,13 +1418,13 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="38">
         <v>42620</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -1429,7 +1433,7 @@
       <c r="F6" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="58">
+      <c r="G6" s="38">
         <v>42620</v>
       </c>
       <c r="H6" s="30" t="s">
@@ -1438,7 +1442,7 @@
       <c r="I6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="58">
+      <c r="J6" s="38">
         <v>42618</v>
       </c>
       <c r="K6" s="6" t="s">
@@ -1453,7 +1457,7 @@
     </row>
     <row r="7" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
-      <c r="B7" s="56"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="29" t="s">
         <v>41</v>
       </c>
@@ -1490,7 +1494,7 @@
     </row>
     <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="43" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="28" t="s">
@@ -1529,7 +1533,7 @@
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
-      <c r="B9" s="57"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="25" t="s">
         <v>39</v>
       </c>
@@ -1566,13 +1570,13 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="46" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="38">
         <v>42634</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -1581,7 +1585,7 @@
       <c r="F10" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="58">
+      <c r="G10" s="38">
         <v>42634</v>
       </c>
       <c r="H10" s="30" t="s">
@@ -1590,7 +1594,7 @@
       <c r="I10" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="58">
+      <c r="J10" s="38">
         <v>42632</v>
       </c>
       <c r="K10" s="6" t="s">
@@ -1605,7 +1609,7 @@
     </row>
     <row r="11" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
-      <c r="B11" s="46"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="29" t="s">
         <v>41</v>
       </c>
@@ -1642,7 +1646,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="54" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="26" t="s">
@@ -1676,7 +1680,7 @@
     </row>
     <row r="13" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
-      <c r="B13" s="45"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="27" t="s">
         <v>42</v>
       </c>
@@ -1709,7 +1713,9 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="42"/>
+      <c r="B14" s="56" t="s">
+        <v>83</v>
+      </c>
       <c r="C14" s="28" t="s">
         <v>43</v>
       </c>
@@ -1741,7 +1747,7 @@
     </row>
     <row r="15" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="43"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="25" t="s">
         <v>44</v>
       </c>
@@ -1773,7 +1779,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="54" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -1807,7 +1813,7 @@
     </row>
     <row r="17" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
-      <c r="B17" s="45"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="27" t="s">
         <v>41</v>
       </c>
@@ -1839,7 +1845,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="56" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="28" t="s">
@@ -1848,7 +1854,7 @@
       <c r="D18" s="11">
         <v>42662</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="41" t="s">
         <v>62</v>
       </c>
       <c r="F18" s="23" t="s">
@@ -1857,7 +1863,7 @@
       <c r="G18" s="11">
         <v>42662</v>
       </c>
-      <c r="H18" s="40" t="s">
+      <c r="H18" s="39" t="s">
         <v>62</v>
       </c>
       <c r="I18" s="28" t="s">
@@ -1866,40 +1872,40 @@
       <c r="J18" s="11">
         <v>42660</v>
       </c>
-      <c r="K18" s="38" t="s">
+      <c r="K18" s="41" t="s">
         <v>62</v>
       </c>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
-      <c r="B19" s="43"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="25" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="9">
         <v>42664</v>
       </c>
-      <c r="E19" s="39"/>
+      <c r="E19" s="57"/>
       <c r="F19" s="20" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="9">
         <v>42664</v>
       </c>
-      <c r="H19" s="41"/>
+      <c r="H19" s="58"/>
       <c r="I19" s="25" t="s">
         <v>46</v>
       </c>
       <c r="J19" s="9">
         <v>42662</v>
       </c>
-      <c r="K19" s="39"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="26" t="s">
@@ -1933,7 +1939,7 @@
     </row>
     <row r="21" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
-      <c r="B21" s="45"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="27" t="s">
         <v>42</v>
       </c>
@@ -1965,7 +1971,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="56" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="28" t="s">
@@ -1999,7 +2005,7 @@
     </row>
     <row r="23" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
-      <c r="B23" s="43"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="25" t="s">
         <v>41</v>
       </c>
@@ -2031,7 +2037,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="54" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -2065,7 +2071,7 @@
     </row>
     <row r="25" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
-      <c r="B25" s="45"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="27" t="s">
         <v>42</v>
       </c>
@@ -2097,7 +2103,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="56" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="28" t="s">
@@ -2106,7 +2112,7 @@
       <c r="D26" s="11">
         <v>42690</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="41" t="s">
         <v>63</v>
       </c>
       <c r="F26" s="23" t="s">
@@ -2115,7 +2121,7 @@
       <c r="G26" s="11">
         <v>42690</v>
       </c>
-      <c r="H26" s="40" t="s">
+      <c r="H26" s="39" t="s">
         <v>63</v>
       </c>
       <c r="I26" s="28" t="s">
@@ -2124,40 +2130,40 @@
       <c r="J26" s="11">
         <v>42688</v>
       </c>
-      <c r="K26" s="38" t="s">
+      <c r="K26" s="41" t="s">
         <v>63</v>
       </c>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
-      <c r="B27" s="43"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="25" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="9">
         <v>42692</v>
       </c>
-      <c r="E27" s="39"/>
+      <c r="E27" s="57"/>
       <c r="F27" s="20" t="s">
         <v>41</v>
       </c>
       <c r="G27" s="9">
         <v>42692</v>
       </c>
-      <c r="H27" s="41"/>
+      <c r="H27" s="58"/>
       <c r="I27" s="25" t="s">
         <v>46</v>
       </c>
       <c r="J27" s="9">
         <v>42690</v>
       </c>
-      <c r="K27" s="39"/>
+      <c r="K27" s="57"/>
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="54" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="26" t="s">
@@ -2191,7 +2197,7 @@
     </row>
     <row r="29" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
-      <c r="B29" s="45"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="27" t="s">
         <v>42</v>
       </c>
@@ -2223,7 +2229,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="56" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="28" t="s">
@@ -2257,7 +2263,7 @@
     </row>
     <row r="31" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
-      <c r="B31" s="43"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="25" t="s">
         <v>41</v>
       </c>
@@ -2289,7 +2295,7 @@
     </row>
     <row r="32" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="54" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="26" t="s">
@@ -2322,7 +2328,7 @@
       <c r="L32" s="3"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="45"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="27" t="s">
         <v>42</v>
       </c>
@@ -2352,7 +2358,7 @@
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="56" t="s">
         <v>25</v>
       </c>
       <c r="C34" s="28" t="s">
@@ -2361,7 +2367,7 @@
       <c r="D34" s="11">
         <v>42718</v>
       </c>
-      <c r="E34" s="38" t="s">
+      <c r="E34" s="41" t="s">
         <v>30</v>
       </c>
       <c r="F34" s="23" t="s">
@@ -2370,7 +2376,7 @@
       <c r="G34" s="11">
         <v>42718</v>
       </c>
-      <c r="H34" s="40" t="s">
+      <c r="H34" s="39" t="s">
         <v>31</v>
       </c>
       <c r="I34" s="28" t="s">
@@ -2379,33 +2385,33 @@
       <c r="J34" s="11">
         <v>42716</v>
       </c>
-      <c r="K34" s="38" t="s">
+      <c r="K34" s="41" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="46"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="29" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="2">
         <v>42720</v>
       </c>
-      <c r="E35" s="53"/>
+      <c r="E35" s="42"/>
       <c r="F35" s="24" t="s">
         <v>41</v>
       </c>
       <c r="G35" s="2">
         <v>42720</v>
       </c>
-      <c r="H35" s="54"/>
+      <c r="H35" s="40"/>
       <c r="I35" s="29" t="s">
         <v>46</v>
       </c>
       <c r="J35" s="2">
         <v>42718</v>
       </c>
-      <c r="K35" s="53"/>
+      <c r="K35" s="42"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="3"/>
@@ -2421,16 +2427,24 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="H34:H35"/>
     <mergeCell ref="K34:K35"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
@@ -2442,14 +2456,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E26:E27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2016 2DGP 수업일정.xlsx
+++ b/2016 2DGP 수업일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="94">
   <si>
     <t>1주</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,19 +255,120 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게임오브젝트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임프레임웍 (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게임프레임웍 (2)</t>
+    <t>프로젝트 3차 발표</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>게임 리소스</t>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 리뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 리뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기말고사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기말고사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D 렌더링 기초(동영상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D 렌더링 기초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D 렌더링 기초(동영상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트1차발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트1차발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임오브젝트(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임오브젝트(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임오브젝트(1)(동영상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임오브젝트(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임오브젝트 (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임프레임웍(동영상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임프레임웍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임프레임웍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터컨트롤러(동영상)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -275,84 +376,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프로젝트 3차 발표</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>게임 리소스</t>
-  </si>
-  <si>
-    <t>시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코드 리뷰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코드 리뷰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강의정리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강의정리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기말고사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기말고사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2D 렌더링 기초(동영상)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2D 렌더링 기초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2D 렌더링 기초(동영상)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트1차발표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트1차발표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>애니메이션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>애니메이션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력처리(동영상)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6주</t>
+    <t>프로젝트2차발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트2차발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴강(중간고사기간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추석휴강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추석휴강</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -768,7 +808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -889,12 +929,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -907,43 +995,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1252,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1288,29 +1340,29 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="48" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
-      <c r="B3" s="53"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="25" t="s">
         <v>2</v>
       </c>
@@ -1342,7 +1394,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="43" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="26" t="s">
@@ -1381,7 +1433,7 @@
     </row>
     <row r="5" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="55"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="27" t="s">
         <v>39</v>
       </c>
@@ -1418,7 +1470,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -1457,7 +1509,7 @@
     </row>
     <row r="7" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
-      <c r="B7" s="45"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="29" t="s">
         <v>41</v>
       </c>
@@ -1474,7 +1526,7 @@
         <v>42622</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I7" s="29" t="s">
         <v>48</v>
@@ -1483,7 +1535,7 @@
         <v>42620</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L7" s="3"/>
       <c r="N7" s="3"/>
@@ -1494,8 +1546,8 @@
     </row>
     <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="43" t="s">
-        <v>73</v>
+      <c r="B8" s="59" t="s">
+        <v>69</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>1</v>
@@ -1504,7 +1556,7 @@
         <v>42627</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>1</v>
@@ -1513,7 +1565,7 @@
         <v>42627</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>36</v>
@@ -1533,7 +1585,7 @@
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
-      <c r="B9" s="43"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="25" t="s">
         <v>39</v>
       </c>
@@ -1541,7 +1593,7 @@
         <v>42629</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>39</v>
@@ -1550,7 +1602,7 @@
         <v>42629</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I9" s="25" t="s">
         <v>1</v>
@@ -1559,7 +1611,7 @@
         <v>42620</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="L9" s="3"/>
       <c r="N9" s="3"/>
@@ -1570,7 +1622,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="56" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -1589,7 +1641,7 @@
         <v>42634</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>53</v>
@@ -1598,7 +1650,7 @@
         <v>42632</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L10" s="3"/>
       <c r="N10" s="3"/>
@@ -1609,7 +1661,7 @@
     </row>
     <row r="11" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
-      <c r="B11" s="47"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="29" t="s">
         <v>41</v>
       </c>
@@ -1617,7 +1669,7 @@
         <v>42636</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>41</v>
@@ -1626,7 +1678,7 @@
         <v>42636</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I11" s="29" t="s">
         <v>46</v>
@@ -1635,7 +1687,7 @@
         <v>42634</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L11" s="3"/>
       <c r="N11" s="3"/>
@@ -1646,7 +1698,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="26" t="s">
@@ -1674,13 +1726,13 @@
         <v>42639</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
-      <c r="B13" s="55"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="27" t="s">
         <v>42</v>
       </c>
@@ -1688,7 +1740,7 @@
         <v>42643</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>40</v>
@@ -1697,7 +1749,7 @@
         <v>42643</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="I13" s="27" t="s">
         <v>56</v>
@@ -1706,15 +1758,15 @@
         <v>42641</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="L13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="56" t="s">
-        <v>83</v>
+      <c r="B14" s="45" t="s">
+        <v>77</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>43</v>
@@ -1723,7 +1775,7 @@
         <v>42648</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>38</v>
@@ -1732,7 +1784,7 @@
         <v>42648</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="I14" s="28" t="s">
         <v>54</v>
@@ -1741,13 +1793,13 @@
         <v>42646</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="53"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="25" t="s">
         <v>44</v>
       </c>
@@ -1755,7 +1807,7 @@
         <v>42650</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>41</v>
@@ -1764,22 +1816,22 @@
         <v>42650</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J15" s="9">
         <v>42648</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -1813,7 +1865,7 @@
     </row>
     <row r="17" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
-      <c r="B17" s="55"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="27" t="s">
         <v>41</v>
       </c>
@@ -1821,7 +1873,7 @@
         <v>42657</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>40</v>
@@ -1830,7 +1882,7 @@
         <v>42657</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="I17" s="27" t="s">
         <v>57</v>
@@ -1845,7 +1897,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="45" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="28" t="s">
@@ -1854,8 +1906,8 @@
       <c r="D18" s="11">
         <v>42662</v>
       </c>
-      <c r="E18" s="41" t="s">
-        <v>62</v>
+      <c r="E18" s="40" t="s">
+        <v>91</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>38</v>
@@ -1864,7 +1916,7 @@
         <v>42662</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="I18" s="28" t="s">
         <v>54</v>
@@ -1872,40 +1924,46 @@
       <c r="J18" s="11">
         <v>42660</v>
       </c>
-      <c r="K18" s="41" t="s">
-        <v>62</v>
+      <c r="K18" s="40" t="s">
+        <v>91</v>
       </c>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
-      <c r="B19" s="53"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="25" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="9">
         <v>42664</v>
       </c>
-      <c r="E19" s="57"/>
+      <c r="E19" s="41" t="s">
+        <v>88</v>
+      </c>
       <c r="F19" s="20" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="9">
         <v>42664</v>
       </c>
-      <c r="H19" s="58"/>
+      <c r="H19" s="42" t="s">
+        <v>89</v>
+      </c>
       <c r="I19" s="25" t="s">
         <v>46</v>
       </c>
       <c r="J19" s="9">
         <v>42662</v>
       </c>
-      <c r="K19" s="57"/>
+      <c r="K19" s="41" t="s">
+        <v>90</v>
+      </c>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="26" t="s">
@@ -1915,7 +1973,7 @@
         <v>42669</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>1</v>
@@ -1924,7 +1982,7 @@
         <v>42669</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I20" s="26" t="s">
         <v>53</v>
@@ -1933,13 +1991,13 @@
         <v>42667</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
-      <c r="B21" s="55"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="27" t="s">
         <v>42</v>
       </c>
@@ -1947,7 +2005,7 @@
         <v>42671</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>40</v>
@@ -1956,7 +2014,7 @@
         <v>42671</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I21" s="27" t="s">
         <v>57</v>
@@ -1965,13 +2023,13 @@
         <v>42669</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="45" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="28" t="s">
@@ -2005,7 +2063,7 @@
     </row>
     <row r="23" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
-      <c r="B23" s="53"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="25" t="s">
         <v>41</v>
       </c>
@@ -2037,7 +2095,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="43" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -2071,7 +2129,7 @@
     </row>
     <row r="25" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
-      <c r="B25" s="55"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="27" t="s">
         <v>42</v>
       </c>
@@ -2103,7 +2161,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="45" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="28" t="s">
@@ -2112,8 +2170,8 @@
       <c r="D26" s="11">
         <v>42690</v>
       </c>
-      <c r="E26" s="41" t="s">
-        <v>63</v>
+      <c r="E26" s="47" t="s">
+        <v>59</v>
       </c>
       <c r="F26" s="23" t="s">
         <v>38</v>
@@ -2121,8 +2179,8 @@
       <c r="G26" s="11">
         <v>42690</v>
       </c>
-      <c r="H26" s="39" t="s">
-        <v>63</v>
+      <c r="H26" s="49" t="s">
+        <v>59</v>
       </c>
       <c r="I26" s="28" t="s">
         <v>54</v>
@@ -2130,40 +2188,40 @@
       <c r="J26" s="11">
         <v>42688</v>
       </c>
-      <c r="K26" s="41" t="s">
-        <v>63</v>
+      <c r="K26" s="47" t="s">
+        <v>59</v>
       </c>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
-      <c r="B27" s="53"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="25" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="9">
         <v>42692</v>
       </c>
-      <c r="E27" s="57"/>
+      <c r="E27" s="48"/>
       <c r="F27" s="20" t="s">
         <v>41</v>
       </c>
       <c r="G27" s="9">
         <v>42692</v>
       </c>
-      <c r="H27" s="58"/>
+      <c r="H27" s="50"/>
       <c r="I27" s="25" t="s">
         <v>46</v>
       </c>
       <c r="J27" s="9">
         <v>42690</v>
       </c>
-      <c r="K27" s="57"/>
+      <c r="K27" s="48"/>
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="43" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="26" t="s">
@@ -2173,7 +2231,7 @@
         <v>42697</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F28" s="21" t="s">
         <v>1</v>
@@ -2182,7 +2240,7 @@
         <v>42697</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I28" s="26" t="s">
         <v>53</v>
@@ -2191,13 +2249,13 @@
         <v>42695</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
-      <c r="B29" s="55"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="27" t="s">
         <v>42</v>
       </c>
@@ -2205,7 +2263,7 @@
         <v>42699</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F29" s="22" t="s">
         <v>40</v>
@@ -2214,7 +2272,7 @@
         <v>42699</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I29" s="27" t="s">
         <v>57</v>
@@ -2223,13 +2281,13 @@
         <v>42697</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="45" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="28" t="s">
@@ -2239,7 +2297,7 @@
         <v>42704</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F30" s="23" t="s">
         <v>38</v>
@@ -2248,7 +2306,7 @@
         <v>42704</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>54</v>
@@ -2257,13 +2315,13 @@
         <v>42702</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L30" s="3"/>
     </row>
     <row r="31" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
-      <c r="B31" s="53"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="25" t="s">
         <v>41</v>
       </c>
@@ -2295,7 +2353,7 @@
     </row>
     <row r="32" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="43" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="26" t="s">
@@ -2305,7 +2363,7 @@
         <v>42711</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F32" s="21" t="s">
         <v>1</v>
@@ -2314,7 +2372,7 @@
         <v>42711</v>
       </c>
       <c r="H32" s="32" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I32" s="26" t="s">
         <v>53</v>
@@ -2323,12 +2381,12 @@
         <v>42709</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L32" s="3"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="55"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="27" t="s">
         <v>42</v>
       </c>
@@ -2336,7 +2394,7 @@
         <v>42713</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F33" s="22" t="s">
         <v>40</v>
@@ -2345,7 +2403,7 @@
         <v>42713</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I33" s="27" t="s">
         <v>57</v>
@@ -2354,11 +2412,11 @@
         <v>42711</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="45" t="s">
         <v>25</v>
       </c>
       <c r="C34" s="28" t="s">
@@ -2367,7 +2425,7 @@
       <c r="D34" s="11">
         <v>42718</v>
       </c>
-      <c r="E34" s="41" t="s">
+      <c r="E34" s="47" t="s">
         <v>30</v>
       </c>
       <c r="F34" s="23" t="s">
@@ -2376,7 +2434,7 @@
       <c r="G34" s="11">
         <v>42718</v>
       </c>
-      <c r="H34" s="39" t="s">
+      <c r="H34" s="49" t="s">
         <v>31</v>
       </c>
       <c r="I34" s="28" t="s">
@@ -2385,33 +2443,33 @@
       <c r="J34" s="11">
         <v>42716</v>
       </c>
-      <c r="K34" s="41" t="s">
+      <c r="K34" s="47" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="47"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="29" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="2">
         <v>42720</v>
       </c>
-      <c r="E35" s="42"/>
+      <c r="E35" s="58"/>
       <c r="F35" s="24" t="s">
         <v>41</v>
       </c>
       <c r="G35" s="2">
         <v>42720</v>
       </c>
-      <c r="H35" s="40"/>
+      <c r="H35" s="57"/>
       <c r="I35" s="29" t="s">
         <v>46</v>
       </c>
       <c r="J35" s="2">
         <v>42718</v>
       </c>
-      <c r="K35" s="42"/>
+      <c r="K35" s="58"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="3"/>
@@ -2426,20 +2484,7 @@
       <c r="K36" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
+  <mergeCells count="26">
     <mergeCell ref="H34:H35"/>
     <mergeCell ref="K34:K35"/>
     <mergeCell ref="B8:B9"/>
@@ -2456,6 +2501,16 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="E26:E27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
